--- a/inhoud/pompen&energiemonitoring/Meting sensor.xlsx
+++ b/inhoud/pompen&energiemonitoring/Meting sensor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/bert_pyck_student_kuleuven_be/Documents/VF/KlaasMeersman.github.io/inhoud/pompen&amp;energiemonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{953E6EF1-0B9A-4B6E-9365-0ADEF4C29735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{953E6EF1-0B9A-4B6E-9365-0ADEF4C29735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AFDEC-7622-4499-9613-04CE01F242F9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D512ADF4-D20C-4574-8EE6-7E9AD93CE4E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Meting thuis" sheetId="1" r:id="rId1"/>
+    <sheet name="Meting labo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Gemeten (meettoestel)</t>
   </si>
@@ -192,7 +193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$1</c:f>
+              <c:f>'Meting thuis'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -227,7 +228,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Meting thuis'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -266,7 +267,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$12</c:f>
+              <c:f>'Meting thuis'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -315,7 +316,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$E$1</c:f>
+              <c:f>'Meting thuis'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -350,7 +351,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Meting thuis'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -389,7 +390,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$12</c:f>
+              <c:f>'Meting thuis'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -438,7 +439,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$F$1</c:f>
+              <c:f>'Meting thuis'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -473,7 +474,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Meting thuis'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -512,7 +513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$F$2:$F$12</c:f>
+              <c:f>'Meting thuis'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -520,31 +521,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.127</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88200000000000001</c:v>
+                  <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.155</c:v>
+                  <c:v>0.97699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,7 +558,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -959,7 +959,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$1</c:f>
+              <c:f>'Meting thuis'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -994,7 +994,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Meting thuis'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1033,7 +1033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$12</c:f>
+              <c:f>'Meting thuis'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1082,7 +1082,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$E$1</c:f>
+              <c:f>'Meting thuis'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1117,7 +1117,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Meting thuis'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1156,7 +1156,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$12</c:f>
+              <c:f>'Meting thuis'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1205,7 +1205,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$F$1</c:f>
+              <c:f>'Meting thuis'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1240,7 +1240,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Meting thuis'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1279,7 +1279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$F$2:$F$12</c:f>
+              <c:f>'Meting thuis'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1287,31 +1287,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.127</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88200000000000001</c:v>
+                  <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.155</c:v>
+                  <c:v>0.97699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,6 +1643,1773 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Meting Labo (LIN)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting labo'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gemeten (meettoestel)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6780-4108-B09F-528B83EA5AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting labo'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gemeten (sensor)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-48.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-48.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-49.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-29.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>462.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>706.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>953.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1158.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1427.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1659.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1955.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6780-4108-B09F-528B83EA5AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting labo'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verwachte stroom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5157232704402515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1446540880503147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9182389937106921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.062893081761006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207547169811319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.899371069182386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.861635220125784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.987421383647799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.742138364779876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155.34591194968556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169.1823899371069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252.20125786163521</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>336.4779874213836</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>407.54716981132077</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>509.43396226415092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>604.40251572327043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>696.22641509433959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6780-4108-B09F-528B83EA5AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660820624"/>
+        <c:axId val="660821104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660820624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>U (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660821104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="660821104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>I (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660820624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Meting Labo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> (LOG)</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting labo'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gemeten (meettoestel)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15AB-41E7-8006-4A6EB11D8A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting labo'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gemeten (sensor)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-48.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-48.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-49.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-29.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>462.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>706.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>953.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1158.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1427.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1659.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1955.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15AB-41E7-8006-4A6EB11D8A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting labo'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verwachte stroom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting labo'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5157232704402515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1446540880503147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9182389937106921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.062893081761006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207547169811319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.899371069182386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.861635220125784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.987421383647799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.742138364779876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155.34591194968556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169.1823899371069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252.20125786163521</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>336.4779874213836</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>407.54716981132077</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>509.43396226415092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>604.40251572327043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>696.22641509433959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15AB-41E7-8006-4A6EB11D8A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660820624"/>
+        <c:axId val="660821104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660820624"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>U (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660821104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="660821104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>I (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660820624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1723,6 +3490,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2710,6 +4557,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2786,6 +5665,85 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD67BA4-F185-4B06-9415-BF639DABE706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41469CF7-B9EC-8CC3-7D47-95F085D24162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130028C1-33A9-4B32-B0C6-D58C4E70744B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE6DA9-CCAF-4304-83DE-CBC888BBF98F}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +6121,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3196,8 +6154,8 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">ROUND((B3/$A$2),3)</f>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" ref="F3:F11" si="0">ROUND((B3/$A$2),3)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,7 +6173,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,7 +6191,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3251,7 +6209,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,7 +6227,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.127</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,7 +6245,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,7 +6263,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,7 +6281,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.88200000000000001</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,7 +6299,378 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.155</v>
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F3FBAA-9A4F-4503-9F41-969902189113}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15.9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1E-3</v>
+      </c>
+      <c r="E2">
+        <v>-48.3</v>
+      </c>
+      <c r="F2">
+        <f>B2/$A$2*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.022</v>
+      </c>
+      <c r="E3">
+        <v>-48.17</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="0">B3/$A$2*1000</f>
+        <v>2.5157232704402515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2.048</v>
+      </c>
+      <c r="E4">
+        <v>-49.7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.1446540880503147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.11</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="E5">
+        <v>-45.9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6.9182389937106921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.16</v>
+      </c>
+      <c r="C6">
+        <v>7.5</v>
+      </c>
+      <c r="D6">
+        <v>7.476</v>
+      </c>
+      <c r="E6">
+        <v>-40.380000000000003</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10.062893081761006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.21</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10.07</v>
+      </c>
+      <c r="E7">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>13.207547169811319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.38</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>19.98</v>
+      </c>
+      <c r="E8">
+        <v>-29.35</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>23.899371069182386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.92</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>50.05</v>
+      </c>
+      <c r="E9">
+        <v>-2.38</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>57.861635220125784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1.24</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>75.5</v>
+      </c>
+      <c r="E10">
+        <v>24.36</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>77.987421383647799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1.57</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>99.07</v>
+      </c>
+      <c r="E11">
+        <v>64.12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>98.742138364779876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>201.1</v>
+      </c>
+      <c r="E12">
+        <v>172.16</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>155.34591194968556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.69</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>502</v>
+      </c>
+      <c r="E13">
+        <v>462.49</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>169.1823899371069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4.01</v>
+      </c>
+      <c r="C14">
+        <v>750</v>
+      </c>
+      <c r="D14">
+        <v>743</v>
+      </c>
+      <c r="E14">
+        <v>706.56</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>252.20125786163521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5.35</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>999</v>
+      </c>
+      <c r="E15">
+        <v>953.81</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>336.4779874213836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>6.48</v>
+      </c>
+      <c r="C16">
+        <v>1200</v>
+      </c>
+      <c r="D16">
+        <v>1209</v>
+      </c>
+      <c r="E16">
+        <v>1158.26</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>407.54716981132077</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8.1</v>
+      </c>
+      <c r="C17">
+        <v>1500</v>
+      </c>
+      <c r="D17">
+        <v>1495</v>
+      </c>
+      <c r="E17">
+        <v>1427.25</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>509.43396226415092</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>9.61</v>
+      </c>
+      <c r="C18">
+        <v>1750</v>
+      </c>
+      <c r="D18">
+        <v>1741</v>
+      </c>
+      <c r="E18">
+        <v>1659.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>604.40251572327043</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>11.07</v>
+      </c>
+      <c r="C19">
+        <v>2000</v>
+      </c>
+      <c r="D19">
+        <v>2035</v>
+      </c>
+      <c r="E19">
+        <v>1955.76</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>696.22641509433959</v>
       </c>
     </row>
   </sheetData>
